--- a/资料/物品列表20190905.xlsx
+++ b/资料/物品列表20190905.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86137\Desktop\micro_machinery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\buildsprogram\javaprogram\micro_machinery\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852ECE3E-02F6-4E46-9B88-2106C6FB0A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54835C7E-C972-4A15-8C3F-664856B214D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="矿床" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2688,15 +2688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2707,9 +2698,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2993,22 +2993,22 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>159</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3640,33 +3640,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -3674,43 +3674,43 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19" t="s">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18" t="s">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4134,7 +4134,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -4160,7 +4160,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
     </row>
-    <row r="36" spans="1:29" ht="47" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -4294,16 +4294,16 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="X36" s="17" t="s">
+      <c r="X36" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
     </row>
-    <row r="37" spans="1:29" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4329,16 +4329,16 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="X37" s="17" t="s">
+      <c r="X37" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
     </row>
-    <row r="39" spans="1:29" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
@@ -4406,16 +4406,16 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="X39" s="17" t="s">
+      <c r="X39" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>99</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>102</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4561,7 +4561,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>111</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B47" s="13" t="s">
         <v>113</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>117</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>118</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>128</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4750,7 +4750,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -4967,7 +4967,7 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>122</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>124</v>
       </c>
@@ -5046,7 +5046,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5068,7 +5068,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>132</v>
       </c>
@@ -5124,7 +5124,7 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>47</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5176,7 +5176,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>137</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>76</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>83</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B71" s="12" t="s">
         <v>139</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>141</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>143</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -5391,7 +5391,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -5413,7 +5413,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -5435,7 +5435,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -5457,7 +5457,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -5479,7 +5479,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -5501,7 +5501,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -5523,7 +5523,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -5545,7 +5545,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -5567,7 +5567,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -5589,7 +5589,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -5611,7 +5611,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -5633,7 +5633,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -5655,7 +5655,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -5677,7 +5677,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -5699,7 +5699,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -5721,7 +5721,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -5743,7 +5743,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5765,7 +5765,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -5787,7 +5787,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -5809,7 +5809,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -5831,7 +5831,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -5853,7 +5853,7 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5875,7 +5875,7 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -5897,7 +5897,7 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -5919,7 +5919,7 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -5941,7 +5941,7 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5963,7 +5963,7 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5985,7 +5985,7 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -6007,7 +6007,7 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -6029,7 +6029,7 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -6051,7 +6051,7 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -6073,7 +6073,7 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -6095,7 +6095,7 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -6117,7 +6117,7 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -6139,7 +6139,7 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -6161,7 +6161,7 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -6183,7 +6183,7 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -6205,7 +6205,7 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -6227,7 +6227,7 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -6249,7 +6249,7 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -6271,7 +6271,7 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -6293,7 +6293,7 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -6315,7 +6315,7 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -6337,7 +6337,7 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -6359,7 +6359,7 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -6381,7 +6381,7 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -6403,7 +6403,7 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -6425,7 +6425,7 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -6447,7 +6447,7 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -6469,7 +6469,7 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -6491,7 +6491,7 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -6513,7 +6513,7 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -6535,7 +6535,7 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -6557,7 +6557,7 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -6579,7 +6579,7 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -6601,7 +6601,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -6623,7 +6623,7 @@
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
     </row>
-    <row r="131" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -6645,7 +6645,7 @@
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
     </row>
-    <row r="132" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -6667,7 +6667,7 @@
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
     </row>
-    <row r="133" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -6689,7 +6689,7 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
     </row>
-    <row r="134" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -6711,7 +6711,7 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
     </row>
-    <row r="135" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -6733,7 +6733,7 @@
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
     </row>
-    <row r="136" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -6755,7 +6755,7 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
     </row>
-    <row r="137" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -6777,7 +6777,7 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
     </row>
-    <row r="138" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -6799,7 +6799,7 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
     </row>
-    <row r="139" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -6821,7 +6821,7 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
     </row>
-    <row r="140" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -6843,7 +6843,7 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
     </row>
-    <row r="141" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -6865,7 +6865,7 @@
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
     </row>
-    <row r="142" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -6887,7 +6887,7 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
     </row>
-    <row r="143" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -6909,7 +6909,7 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
     </row>
-    <row r="144" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -6931,7 +6931,7 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
     </row>
-    <row r="145" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -6953,7 +6953,7 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
     </row>
-    <row r="146" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -6975,7 +6975,7 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
     </row>
-    <row r="147" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -6997,7 +6997,7 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
     </row>
-    <row r="148" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -7019,7 +7019,7 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
     </row>
-    <row r="149" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -7041,7 +7041,7 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
     </row>
-    <row r="150" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -7063,7 +7063,7 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
     </row>
-    <row r="151" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -7085,7 +7085,7 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
     </row>
-    <row r="152" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -7107,7 +7107,7 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -7129,7 +7129,7 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="154" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -7151,7 +7151,7 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
     </row>
-    <row r="155" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -7173,7 +7173,7 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
     </row>
-    <row r="156" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -7195,7 +7195,7 @@
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
     </row>
-    <row r="157" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -7217,7 +7217,7 @@
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
     </row>
-    <row r="158" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -7239,7 +7239,7 @@
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
     </row>
-    <row r="159" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -7261,7 +7261,7 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
     </row>
-    <row r="160" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -7283,7 +7283,7 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
     </row>
-    <row r="161" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -7305,7 +7305,7 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
     </row>
-    <row r="162" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -7327,7 +7327,7 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
     </row>
-    <row r="163" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -7349,7 +7349,7 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
     </row>
-    <row r="164" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -7371,7 +7371,7 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
     </row>
-    <row r="165" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -7393,7 +7393,7 @@
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
     </row>
-    <row r="166" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -7415,7 +7415,7 @@
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
     </row>
-    <row r="167" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -7437,7 +7437,7 @@
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
     </row>
-    <row r="168" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -7459,7 +7459,7 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
     </row>
-    <row r="169" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -7481,7 +7481,7 @@
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
     </row>
-    <row r="170" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -7503,7 +7503,7 @@
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
     </row>
-    <row r="171" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -7525,7 +7525,7 @@
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
     </row>
-    <row r="172" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -7547,7 +7547,7 @@
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
     </row>
-    <row r="173" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -7569,7 +7569,7 @@
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
     </row>
-    <row r="174" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -7591,7 +7591,7 @@
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
     </row>
-    <row r="175" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -7613,7 +7613,7 @@
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
     </row>
-    <row r="176" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:21" x14ac:dyDescent="0.2">
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -7632,7 +7632,7 @@
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
     </row>
-    <row r="177" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="14:21" x14ac:dyDescent="0.2">
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -7671,32 +7671,32 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.08203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
         <v>177</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>386</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>537</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>481</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>538</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>568</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>482</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="70" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>483</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>495</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>496</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E40" s="9" t="s">
         <v>510</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G41" s="9" t="s">
         <v>515</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>498</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>529</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>530</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>531</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>532</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I47" s="9" t="s">
         <v>561</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I48" s="9" t="s">
         <v>562</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="9" t="s">
         <v>563</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="9" t="s">
         <v>564</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="9" t="s">
         <v>565</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="9"/>
     </row>
   </sheetData>
@@ -9241,179 +9241,179 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>463</v>
       </c>
@@ -9430,40 +9430,40 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.08203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="C2" t="s">
         <v>603</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>621</v>
       </c>
       <c r="E2">
@@ -9486,7 +9486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>577</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="C3" t="s">
         <v>614</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E3">
@@ -9509,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>578</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="C4" t="s">
         <v>603</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>620</v>
       </c>
       <c r="E4">
@@ -9532,7 +9532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>579</v>
       </c>
@@ -9542,7 +9542,7 @@
       <c r="C5" t="s">
         <v>608</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E5">
@@ -9555,7 +9555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="C6" t="s">
         <v>603</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>622</v>
       </c>
       <c r="E6">
@@ -9578,7 +9578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>581</v>
       </c>
@@ -9588,7 +9588,7 @@
       <c r="C7" t="s">
         <v>613</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E7">
@@ -9601,7 +9601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>593</v>
       </c>
@@ -9611,7 +9611,7 @@
       <c r="C8" t="s">
         <v>603</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>623</v>
       </c>
       <c r="E8">
@@ -9624,7 +9624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>594</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="C9" t="s">
         <v>614</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E9">
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>582</v>
       </c>
@@ -9657,7 +9657,7 @@
       <c r="C10" t="s">
         <v>624</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E10">
@@ -9670,7 +9670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>583</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="C11" t="s">
         <v>605</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>625</v>
       </c>
       <c r="E11">
@@ -9693,7 +9693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>584</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="C12" t="s">
         <v>606</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E12">
@@ -9716,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="C13" t="s">
         <v>610</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>625</v>
       </c>
       <c r="E13">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>586</v>
       </c>
@@ -9749,7 +9749,7 @@
       <c r="C14" t="s">
         <v>603</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>626</v>
       </c>
       <c r="E14">
@@ -9762,7 +9762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>587</v>
       </c>
@@ -9772,7 +9772,7 @@
       <c r="C15" t="s">
         <v>614</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E15">
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>588</v>
       </c>
@@ -9795,7 +9795,7 @@
       <c r="C16" t="s">
         <v>603</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>627</v>
       </c>
       <c r="E16">
@@ -9808,7 +9808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>589</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="C17" t="s">
         <v>613</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E17">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>590</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="C18" t="s">
         <v>613</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E18">
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>591</v>
       </c>
@@ -9864,7 +9864,7 @@
       <c r="C19" t="s">
         <v>616</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E19">
@@ -9877,7 +9877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>592</v>
       </c>
@@ -9887,7 +9887,7 @@
       <c r="C20" t="s">
         <v>611</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>625</v>
       </c>
       <c r="E20">
@@ -9900,7 +9900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>595</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="C21" t="s">
         <v>612</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>628</v>
       </c>
       <c r="E21">
@@ -9923,7 +9923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>596</v>
       </c>
@@ -9933,7 +9933,7 @@
       <c r="C22" t="s">
         <v>605</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>625</v>
       </c>
       <c r="E22">
@@ -9946,7 +9946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>597</v>
       </c>
@@ -9956,7 +9956,7 @@
       <c r="C23" t="s">
         <v>614</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E23">
@@ -9969,7 +9969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>598</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="C24" t="s">
         <v>609</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="17" t="s">
         <v>625</v>
       </c>
       <c r="E24">
@@ -9992,7 +9992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>599</v>
       </c>
@@ -10002,7 +10002,7 @@
       <c r="C25" t="s">
         <v>604</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="17" t="s">
         <v>629</v>
       </c>
       <c r="E25">
@@ -10015,7 +10015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>607</v>
       </c>
